--- a/TestProject_VS2022/MRHelper/MRHelper/ExcelTemplate/ZqReportTemplate.xlsx
+++ b/TestProject_VS2022/MRHelper/MRHelper/ExcelTemplate/ZqReportTemplate.xlsx
@@ -1,6 +1,26 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\study\TestProject_VS2022\MRHelper\MRHelper\ExcelTemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845BF651-04BA-4C08-9B7C-1A12657D8EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>渠道类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -114,6 +134,14 @@
   </si>
   <si>
     <t>{{FreezeType}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Legaler}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,6 +165,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +279,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,4 +555,136 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="37.375" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="63.25" customWidth="1"/>
+    <col min="13" max="14" width="9" customWidth="1"/>
+    <col min="15" max="16" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>